--- a/static/download/2022/RP3_Flights_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_Flights_2022_Jan_Dec.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="180">
   <si>
     <t>Data source</t>
   </si>
@@ -529,7 +529,10 @@
     <t>Slovenia</t>
   </si>
   <si>
-    <t>Spain</t>
+    <t>Spain-Canaries</t>
+  </si>
+  <si>
+    <t>Spain-Continental</t>
   </si>
   <si>
     <t>Sweden</t>
@@ -969,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1112,7 +1115,7 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="21" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="21" fillId="3" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1150,9 +1153,6 @@
     <xf borderId="28" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="26" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1169,7 +1169,7 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="31" fillId="3" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="32" fillId="3" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1350,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="8">
-        <v>44944.0</v>
+        <v>45034.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B2" s="33">
         <f>ERT_FLTS_YY!B2</f>
-        <v>44944</v>
+        <v>45034</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -1804,7 +1804,7 @@
       <c r="D7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="55">
         <v>31.0</v>
       </c>
       <c r="F7" s="56">
@@ -1832,13 +1832,13 @@
       <c r="D8" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="55">
         <v>30.0</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="60">
         <v>722009.0</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="61">
         <f t="shared" si="1"/>
         <v>24066.96667</v>
       </c>
@@ -1860,13 +1860,13 @@
       <c r="D9" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F9" s="61">
+      <c r="E9" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F9" s="60">
         <v>787333.0</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="61">
         <f t="shared" si="1"/>
         <v>25397.83871</v>
       </c>
@@ -1888,13 +1888,13 @@
       <c r="D10" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="55">
         <v>30.0</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="60">
         <v>827861.0</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="61">
         <f t="shared" si="1"/>
         <v>27595.36667</v>
       </c>
@@ -1916,13 +1916,13 @@
       <c r="D11" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F11" s="61">
+      <c r="E11" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F11" s="60">
         <v>865862.0</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="61">
         <f t="shared" si="1"/>
         <v>27931.03226</v>
       </c>
@@ -1944,13 +1944,13 @@
       <c r="D12" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F12" s="61">
+      <c r="E12" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F12" s="60">
         <v>860522.0</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="61">
         <f t="shared" si="1"/>
         <v>27758.77419</v>
       </c>
@@ -1972,13 +1972,13 @@
       <c r="D13" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="55">
         <v>30.0</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="60">
         <v>831182.0</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="61">
         <f t="shared" si="1"/>
         <v>27706.06667</v>
       </c>
@@ -2000,13 +2000,13 @@
       <c r="D14" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F14" s="61">
+      <c r="E14" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F14" s="60">
         <v>783757.0</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <f t="shared" si="1"/>
         <v>25282.48387</v>
       </c>
@@ -2028,13 +2028,13 @@
       <c r="D15" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="55">
         <v>30.0</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="60">
         <v>647661.0</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="61">
         <f t="shared" si="1"/>
         <v>21588.7</v>
       </c>
@@ -2044,30 +2044,30 @@
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="15">
         <v>2015.0</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="66">
-        <v>31.0</v>
-      </c>
-      <c r="F16" s="67">
+      <c r="E16" s="65">
+        <v>31.0</v>
+      </c>
+      <c r="F16" s="66">
         <v>631377.0</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="67">
         <f t="shared" si="1"/>
         <v>20367</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70">
+      <c r="H16" s="68"/>
+      <c r="I16" s="69">
         <v>0.0</v>
       </c>
     </row>
@@ -2084,17 +2084,17 @@
       <c r="D17" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F17" s="71">
+      <c r="E17" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F17" s="70">
         <v>617719.0</v>
       </c>
       <c r="G17" s="49">
         <f t="shared" si="1"/>
         <v>19926.41935</v>
       </c>
-      <c r="H17" s="72"/>
+      <c r="H17" s="71"/>
       <c r="I17" s="59">
         <v>0.0</v>
       </c>
@@ -2112,17 +2112,17 @@
       <c r="D18" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="55">
         <v>29.0</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="60">
         <v>616805.0</v>
       </c>
       <c r="G18" s="57">
         <f t="shared" si="1"/>
         <v>21269.13793</v>
       </c>
-      <c r="H18" s="73"/>
+      <c r="H18" s="72"/>
       <c r="I18" s="59">
         <v>0.0</v>
       </c>
@@ -2140,17 +2140,17 @@
       <c r="D19" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F19" s="61">
+      <c r="E19" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F19" s="60">
         <v>689895.0</v>
       </c>
       <c r="G19" s="57">
         <f t="shared" si="1"/>
         <v>22254.67742</v>
       </c>
-      <c r="H19" s="73"/>
+      <c r="H19" s="72"/>
       <c r="I19" s="59">
         <v>0.0</v>
       </c>
@@ -2168,17 +2168,17 @@
       <c r="D20" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="55">
         <v>30.0</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="60">
         <v>735956.0</v>
       </c>
       <c r="G20" s="57">
         <f t="shared" si="1"/>
         <v>24531.86667</v>
       </c>
-      <c r="H20" s="73"/>
+      <c r="H20" s="72"/>
       <c r="I20" s="59">
         <v>0.0</v>
       </c>
@@ -2196,17 +2196,17 @@
       <c r="D21" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F21" s="61">
+      <c r="E21" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F21" s="60">
         <v>812257.0</v>
       </c>
       <c r="G21" s="57">
         <f t="shared" si="1"/>
         <v>26201.83871</v>
       </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="59">
         <v>0.0</v>
       </c>
@@ -2224,17 +2224,17 @@
       <c r="D22" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="55">
         <v>30.0</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="60">
         <v>842400.0</v>
       </c>
       <c r="G22" s="57">
         <f t="shared" si="1"/>
         <v>28080</v>
       </c>
-      <c r="H22" s="73"/>
+      <c r="H22" s="72"/>
       <c r="I22" s="59">
         <v>0.0</v>
       </c>
@@ -2252,17 +2252,17 @@
       <c r="D23" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F23" s="61">
+      <c r="E23" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F23" s="60">
         <v>892719.0</v>
       </c>
       <c r="G23" s="57">
         <f t="shared" si="1"/>
         <v>28797.3871</v>
       </c>
-      <c r="H23" s="73"/>
+      <c r="H23" s="72"/>
       <c r="I23" s="59">
         <v>0.0</v>
       </c>
@@ -2280,17 +2280,17 @@
       <c r="D24" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F24" s="61">
+      <c r="E24" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F24" s="60">
         <v>888058.0</v>
       </c>
       <c r="G24" s="57">
         <f t="shared" si="1"/>
         <v>28647.03226</v>
       </c>
-      <c r="H24" s="73"/>
+      <c r="H24" s="72"/>
       <c r="I24" s="59">
         <v>0.0</v>
       </c>
@@ -2308,17 +2308,17 @@
       <c r="D25" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="55">
         <v>30.0</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="60">
         <v>860783.0</v>
       </c>
       <c r="G25" s="57">
         <f t="shared" si="1"/>
         <v>28692.76667</v>
       </c>
-      <c r="H25" s="73"/>
+      <c r="H25" s="72"/>
       <c r="I25" s="59">
         <v>0.0</v>
       </c>
@@ -2336,17 +2336,17 @@
       <c r="D26" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F26" s="61">
+      <c r="E26" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F26" s="60">
         <v>804733.0</v>
       </c>
       <c r="G26" s="57">
         <f t="shared" si="1"/>
         <v>25959.12903</v>
       </c>
-      <c r="H26" s="73"/>
+      <c r="H26" s="72"/>
       <c r="I26" s="59">
         <v>0.0</v>
       </c>
@@ -2364,46 +2364,46 @@
       <c r="D27" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="55">
         <v>30.0</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="60">
         <v>665906.0</v>
       </c>
       <c r="G27" s="57">
         <f t="shared" si="1"/>
         <v>22196.86667</v>
       </c>
-      <c r="H27" s="73"/>
+      <c r="H27" s="72"/>
       <c r="I27" s="59">
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="15">
         <v>2016.0</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="66">
-        <v>31.0</v>
-      </c>
-      <c r="F28" s="67">
+      <c r="E28" s="65">
+        <v>31.0</v>
+      </c>
+      <c r="F28" s="66">
         <v>659206.0</v>
       </c>
       <c r="G28" s="57">
         <f t="shared" si="1"/>
         <v>21264.70968</v>
       </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="70">
+      <c r="H28" s="72"/>
+      <c r="I28" s="69">
         <v>0.0</v>
       </c>
     </row>
@@ -2420,17 +2420,17 @@
       <c r="D29" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F29" s="71">
+      <c r="E29" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F29" s="70">
         <v>648039.0</v>
       </c>
       <c r="G29" s="49">
         <f t="shared" si="1"/>
         <v>20904.48387</v>
       </c>
-      <c r="H29" s="72"/>
+      <c r="H29" s="71"/>
       <c r="I29" s="59">
         <v>0.0</v>
       </c>
@@ -2451,14 +2451,14 @@
       <c r="E30" s="55">
         <v>28.0</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="60">
         <v>614202.0</v>
       </c>
       <c r="G30" s="57">
         <f t="shared" si="1"/>
         <v>21935.78571</v>
       </c>
-      <c r="H30" s="73"/>
+      <c r="H30" s="72"/>
       <c r="I30" s="59">
         <v>0.0</v>
       </c>
@@ -2476,17 +2476,17 @@
       <c r="D31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F31" s="61">
+      <c r="E31" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F31" s="60">
         <v>722282.0</v>
       </c>
       <c r="G31" s="57">
         <f t="shared" si="1"/>
         <v>23299.41935</v>
       </c>
-      <c r="H31" s="73"/>
+      <c r="H31" s="72"/>
       <c r="I31" s="59">
         <v>0.0</v>
       </c>
@@ -2504,17 +2504,17 @@
       <c r="D32" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="55">
         <v>30.0</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="60">
         <v>761150.0</v>
       </c>
       <c r="G32" s="57">
         <f t="shared" si="1"/>
         <v>25371.66667</v>
       </c>
-      <c r="H32" s="73"/>
+      <c r="H32" s="72"/>
       <c r="I32" s="59">
         <v>0.0</v>
       </c>
@@ -2532,17 +2532,17 @@
       <c r="D33" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F33" s="61">
+      <c r="E33" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F33" s="60">
         <v>848181.0</v>
       </c>
       <c r="G33" s="57">
         <f t="shared" si="1"/>
         <v>27360.67742</v>
       </c>
-      <c r="H33" s="73"/>
+      <c r="H33" s="72"/>
       <c r="I33" s="59">
         <v>0.0</v>
       </c>
@@ -2560,17 +2560,17 @@
       <c r="D34" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="55">
         <v>30.0</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="60">
         <v>880536.0</v>
       </c>
       <c r="G34" s="57">
         <f t="shared" si="1"/>
         <v>29351.2</v>
       </c>
-      <c r="H34" s="73"/>
+      <c r="H34" s="72"/>
       <c r="I34" s="59">
         <v>0.0</v>
       </c>
@@ -2588,17 +2588,17 @@
       <c r="D35" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F35" s="61">
+      <c r="E35" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F35" s="60">
         <v>931416.0</v>
       </c>
       <c r="G35" s="57">
         <f t="shared" si="1"/>
         <v>30045.67742</v>
       </c>
-      <c r="H35" s="73"/>
+      <c r="H35" s="72"/>
       <c r="I35" s="59">
         <v>0.0</v>
       </c>
@@ -2616,17 +2616,17 @@
       <c r="D36" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F36" s="61">
+      <c r="E36" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F36" s="60">
         <v>924678.0</v>
       </c>
       <c r="G36" s="57">
         <f t="shared" si="1"/>
         <v>29828.32258</v>
       </c>
-      <c r="H36" s="73"/>
+      <c r="H36" s="72"/>
       <c r="I36" s="59">
         <v>0.0</v>
       </c>
@@ -2644,17 +2644,17 @@
       <c r="D37" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="55">
         <v>30.0</v>
       </c>
-      <c r="F37" s="61">
+      <c r="F37" s="60">
         <v>894309.0</v>
       </c>
       <c r="G37" s="57">
         <f t="shared" si="1"/>
         <v>29810.3</v>
       </c>
-      <c r="H37" s="73"/>
+      <c r="H37" s="72"/>
       <c r="I37" s="59">
         <v>0.0</v>
       </c>
@@ -2672,17 +2672,17 @@
       <c r="D38" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F38" s="61">
+      <c r="E38" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F38" s="60">
         <v>841752.0</v>
       </c>
       <c r="G38" s="57">
         <f t="shared" si="1"/>
         <v>27153.29032</v>
       </c>
-      <c r="H38" s="73"/>
+      <c r="H38" s="72"/>
       <c r="I38" s="59">
         <v>0.0</v>
       </c>
@@ -2700,46 +2700,46 @@
       <c r="D39" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="55">
         <v>30.0</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F39" s="60">
         <v>691756.0</v>
       </c>
       <c r="G39" s="57">
         <f t="shared" si="1"/>
         <v>23058.53333</v>
       </c>
-      <c r="H39" s="73"/>
+      <c r="H39" s="72"/>
       <c r="I39" s="59">
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="12.0" customHeight="1">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="15">
         <v>2017.0</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="66">
-        <v>31.0</v>
-      </c>
-      <c r="F40" s="67">
+      <c r="E40" s="65">
+        <v>31.0</v>
+      </c>
+      <c r="F40" s="66">
         <v>667190.0</v>
       </c>
       <c r="G40" s="57">
         <f t="shared" si="1"/>
         <v>21522.25806</v>
       </c>
-      <c r="H40" s="73"/>
-      <c r="I40" s="70">
+      <c r="H40" s="72"/>
+      <c r="I40" s="69">
         <v>0.0</v>
       </c>
     </row>
@@ -2756,18 +2756,18 @@
       <c r="D41" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F41" s="71">
+      <c r="E41" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F41" s="70">
         <v>673532.0</v>
       </c>
       <c r="G41" s="49">
         <f t="shared" si="1"/>
         <v>21726.83871</v>
       </c>
-      <c r="H41" s="72"/>
-      <c r="I41" s="74">
+      <c r="H41" s="71"/>
+      <c r="I41" s="73">
         <v>0.0</v>
       </c>
     </row>
@@ -2787,14 +2787,14 @@
       <c r="E42" s="55">
         <v>28.0</v>
       </c>
-      <c r="F42" s="61">
+      <c r="F42" s="60">
         <v>634453.0</v>
       </c>
       <c r="G42" s="57">
         <f t="shared" si="1"/>
         <v>22659.03571</v>
       </c>
-      <c r="H42" s="73"/>
+      <c r="H42" s="72"/>
       <c r="I42" s="59">
         <v>0.0</v>
       </c>
@@ -2812,17 +2812,17 @@
       <c r="D43" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F43" s="61">
+      <c r="E43" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F43" s="60">
         <v>738535.0</v>
       </c>
       <c r="G43" s="57">
         <f t="shared" si="1"/>
         <v>23823.70968</v>
       </c>
-      <c r="H43" s="73"/>
+      <c r="H43" s="72"/>
       <c r="I43" s="59">
         <v>0.0</v>
       </c>
@@ -2840,17 +2840,17 @@
       <c r="D44" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="55">
         <v>30.0</v>
       </c>
-      <c r="F44" s="61">
+      <c r="F44" s="60">
         <v>796531.0</v>
       </c>
       <c r="G44" s="57">
         <f t="shared" si="1"/>
         <v>26551.03333</v>
       </c>
-      <c r="H44" s="73"/>
+      <c r="H44" s="72"/>
       <c r="I44" s="59">
         <v>0.0</v>
       </c>
@@ -2868,17 +2868,17 @@
       <c r="D45" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F45" s="61">
+      <c r="E45" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F45" s="60">
         <v>870762.0</v>
       </c>
       <c r="G45" s="57">
         <f t="shared" si="1"/>
         <v>28089.09677</v>
       </c>
-      <c r="H45" s="73"/>
+      <c r="H45" s="72"/>
       <c r="I45" s="59">
         <v>0.0</v>
       </c>
@@ -2896,17 +2896,17 @@
       <c r="D46" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="55">
         <v>30.0</v>
       </c>
-      <c r="F46" s="61">
+      <c r="F46" s="60">
         <v>915907.0</v>
       </c>
       <c r="G46" s="57">
         <f t="shared" si="1"/>
         <v>30530.23333</v>
       </c>
-      <c r="H46" s="73"/>
+      <c r="H46" s="72"/>
       <c r="I46" s="59">
         <v>0.0</v>
       </c>
@@ -2924,17 +2924,17 @@
       <c r="D47" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F47" s="61">
+      <c r="E47" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F47" s="60">
         <v>967975.0</v>
       </c>
       <c r="G47" s="57">
         <f t="shared" si="1"/>
         <v>31225</v>
       </c>
-      <c r="H47" s="73"/>
+      <c r="H47" s="72"/>
       <c r="I47" s="59">
         <v>0.0</v>
       </c>
@@ -2952,17 +2952,17 @@
       <c r="D48" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F48" s="61">
+      <c r="E48" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F48" s="60">
         <v>961765.0</v>
       </c>
       <c r="G48" s="57">
         <f t="shared" si="1"/>
         <v>31024.67742</v>
       </c>
-      <c r="H48" s="73"/>
+      <c r="H48" s="72"/>
       <c r="I48" s="59">
         <v>0.0</v>
       </c>
@@ -2980,17 +2980,17 @@
       <c r="D49" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="60">
+      <c r="E49" s="55">
         <v>30.0</v>
       </c>
-      <c r="F49" s="61">
+      <c r="F49" s="60">
         <v>923908.0</v>
       </c>
       <c r="G49" s="57">
         <f t="shared" si="1"/>
         <v>30796.93333</v>
       </c>
-      <c r="H49" s="73"/>
+      <c r="H49" s="72"/>
       <c r="I49" s="59">
         <v>0.0</v>
       </c>
@@ -3008,17 +3008,17 @@
       <c r="D50" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F50" s="61">
+      <c r="E50" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F50" s="60">
         <v>880507.0</v>
       </c>
       <c r="G50" s="57">
         <f t="shared" si="1"/>
         <v>28403.45161</v>
       </c>
-      <c r="H50" s="73"/>
+      <c r="H50" s="72"/>
       <c r="I50" s="59">
         <v>0.0</v>
       </c>
@@ -3036,46 +3036,46 @@
       <c r="D51" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="55">
         <v>30.0</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="60">
         <v>727458.0</v>
       </c>
       <c r="G51" s="57">
         <f t="shared" si="1"/>
         <v>24248.6</v>
       </c>
-      <c r="H51" s="73"/>
+      <c r="H51" s="72"/>
       <c r="I51" s="59">
         <v>0.0</v>
       </c>
     </row>
     <row r="52" ht="12.0" customHeight="1">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B52" s="15">
         <v>2018.0</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="65" t="s">
+      <c r="D52" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="66">
-        <v>31.0</v>
-      </c>
-      <c r="F52" s="67">
+      <c r="E52" s="65">
+        <v>31.0</v>
+      </c>
+      <c r="F52" s="66">
         <v>709263.0</v>
       </c>
-      <c r="G52" s="75">
+      <c r="G52" s="74">
         <f t="shared" si="1"/>
         <v>22879.45161</v>
       </c>
-      <c r="H52" s="76"/>
-      <c r="I52" s="70">
+      <c r="H52" s="75"/>
+      <c r="I52" s="69">
         <v>0.0</v>
       </c>
     </row>
@@ -3095,14 +3095,14 @@
       <c r="E53" s="47">
         <v>31.0</v>
       </c>
-      <c r="F53" s="71">
+      <c r="F53" s="70">
         <v>699975.0</v>
       </c>
       <c r="G53" s="49">
         <f t="shared" si="1"/>
         <v>22579.83871</v>
       </c>
-      <c r="H53" s="72"/>
+      <c r="H53" s="71"/>
       <c r="I53" s="51">
         <v>0.0</v>
       </c>
@@ -3123,14 +3123,14 @@
       <c r="E54" s="55">
         <v>28.0</v>
       </c>
-      <c r="F54" s="61">
+      <c r="F54" s="60">
         <v>657893.0</v>
       </c>
       <c r="G54" s="57">
         <f t="shared" si="1"/>
         <v>23496.17857</v>
       </c>
-      <c r="H54" s="73"/>
+      <c r="H54" s="72"/>
       <c r="I54" s="59">
         <v>0.0</v>
       </c>
@@ -3148,17 +3148,17 @@
       <c r="D55" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F55" s="61">
+      <c r="E55" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F55" s="60">
         <v>753872.0</v>
       </c>
       <c r="G55" s="57">
         <f t="shared" si="1"/>
         <v>24318.45161</v>
       </c>
-      <c r="H55" s="73"/>
+      <c r="H55" s="72"/>
       <c r="I55" s="59">
         <v>0.0</v>
       </c>
@@ -3176,17 +3176,17 @@
       <c r="D56" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="60">
+      <c r="E56" s="55">
         <v>30.0</v>
       </c>
-      <c r="F56" s="61">
+      <c r="F56" s="60">
         <v>815412.0</v>
       </c>
       <c r="G56" s="57">
         <f t="shared" si="1"/>
         <v>27180.4</v>
       </c>
-      <c r="H56" s="73"/>
+      <c r="H56" s="72"/>
       <c r="I56" s="59">
         <v>0.0</v>
       </c>
@@ -3204,17 +3204,17 @@
       <c r="D57" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F57" s="61">
+      <c r="E57" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F57" s="60">
         <v>886422.0</v>
       </c>
       <c r="G57" s="57">
         <f t="shared" si="1"/>
         <v>28594.25806</v>
       </c>
-      <c r="H57" s="73"/>
+      <c r="H57" s="72"/>
       <c r="I57" s="59">
         <v>0.0</v>
       </c>
@@ -3232,17 +3232,17 @@
       <c r="D58" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="55">
         <v>30.0</v>
       </c>
-      <c r="F58" s="61">
+      <c r="F58" s="60">
         <v>932305.0</v>
       </c>
       <c r="G58" s="57">
         <f t="shared" si="1"/>
         <v>31076.83333</v>
       </c>
-      <c r="H58" s="73"/>
+      <c r="H58" s="72"/>
       <c r="I58" s="59">
         <v>0.0</v>
       </c>
@@ -3260,17 +3260,17 @@
       <c r="D59" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E59" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F59" s="61">
+      <c r="E59" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F59" s="60">
         <v>982444.0</v>
       </c>
       <c r="G59" s="57">
         <f t="shared" si="1"/>
         <v>31691.74194</v>
       </c>
-      <c r="H59" s="73"/>
+      <c r="H59" s="72"/>
       <c r="I59" s="59">
         <v>0.0</v>
       </c>
@@ -3288,17 +3288,17 @@
       <c r="D60" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E60" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F60" s="61">
+      <c r="E60" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F60" s="60">
         <v>970256.0</v>
       </c>
       <c r="G60" s="57">
         <f t="shared" si="1"/>
         <v>31298.58065</v>
       </c>
-      <c r="H60" s="73"/>
+      <c r="H60" s="72"/>
       <c r="I60" s="59">
         <v>0.0</v>
       </c>
@@ -3316,17 +3316,17 @@
       <c r="D61" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="60">
+      <c r="E61" s="55">
         <v>30.0</v>
       </c>
-      <c r="F61" s="61">
+      <c r="F61" s="60">
         <v>932411.0</v>
       </c>
       <c r="G61" s="57">
         <f t="shared" si="1"/>
         <v>31080.36667</v>
       </c>
-      <c r="H61" s="73"/>
+      <c r="H61" s="72"/>
       <c r="I61" s="59">
         <v>0.0</v>
       </c>
@@ -3344,17 +3344,17 @@
       <c r="D62" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F62" s="61">
+      <c r="E62" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F62" s="60">
         <v>880038.0</v>
       </c>
       <c r="G62" s="57">
         <f t="shared" si="1"/>
         <v>28388.32258</v>
       </c>
-      <c r="H62" s="73"/>
+      <c r="H62" s="72"/>
       <c r="I62" s="59">
         <v>0.0</v>
       </c>
@@ -3372,46 +3372,46 @@
       <c r="D63" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="60">
+      <c r="E63" s="55">
         <v>30.0</v>
       </c>
-      <c r="F63" s="61">
+      <c r="F63" s="60">
         <v>713365.0</v>
       </c>
       <c r="G63" s="57">
         <f t="shared" si="1"/>
         <v>23778.83333</v>
       </c>
-      <c r="H63" s="73"/>
+      <c r="H63" s="72"/>
       <c r="I63" s="59">
         <v>0.0</v>
       </c>
     </row>
     <row r="64" ht="12.0" customHeight="1">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B64" s="15">
         <v>2019.0</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="65" t="s">
+      <c r="D64" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="66">
-        <v>31.0</v>
-      </c>
-      <c r="F64" s="67">
+      <c r="E64" s="65">
+        <v>31.0</v>
+      </c>
+      <c r="F64" s="66">
         <v>709543.0</v>
       </c>
-      <c r="G64" s="77">
+      <c r="G64" s="76">
         <f t="shared" si="1"/>
         <v>22888.48387</v>
       </c>
-      <c r="H64" s="78"/>
-      <c r="I64" s="70">
+      <c r="H64" s="77"/>
+      <c r="I64" s="69">
         <v>1.0</v>
       </c>
     </row>
@@ -3419,10 +3419,10 @@
       <c r="A65" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="79">
+      <c r="B65" s="78">
         <v>2020.0</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="C65" s="79" t="s">
         <v>107</v>
       </c>
       <c r="D65" s="46" t="s">
@@ -3431,14 +3431,14 @@
       <c r="E65" s="47">
         <v>31.0</v>
       </c>
-      <c r="F65" s="71">
+      <c r="F65" s="70">
         <v>700208.0</v>
       </c>
       <c r="G65" s="49">
         <f t="shared" si="1"/>
         <v>22587.35484</v>
       </c>
-      <c r="H65" s="72">
+      <c r="H65" s="71">
         <f>G65/G53-1</f>
         <v>0.000332869031</v>
       </c>
@@ -3450,10 +3450,10 @@
       <c r="A66" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="81">
+      <c r="B66" s="80">
         <v>2020.0</v>
       </c>
-      <c r="C66" s="82" t="s">
+      <c r="C66" s="81" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="54" t="s">
@@ -3462,14 +3462,14 @@
       <c r="E66" s="55">
         <v>29.0</v>
       </c>
-      <c r="F66" s="61">
+      <c r="F66" s="60">
         <v>666306.0</v>
       </c>
       <c r="G66" s="57">
         <f t="shared" si="1"/>
         <v>22976.06897</v>
       </c>
-      <c r="H66" s="73">
+      <c r="H66" s="72">
         <f t="shared" ref="H66:H76" si="2">(sum(F$65:F66)/sum(E$65:E66))/((sum(F$53:F54)/sum(E$53:E54)))-1</f>
         <v>-0.01040545424</v>
       </c>
@@ -3481,26 +3481,26 @@
       <c r="A67" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="81">
+      <c r="B67" s="80">
         <v>2020.0</v>
       </c>
-      <c r="C67" s="82" t="s">
+      <c r="C67" s="81" t="s">
         <v>109</v>
       </c>
       <c r="D67" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F67" s="61">
+      <c r="E67" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F67" s="60">
         <v>443239.0</v>
       </c>
       <c r="G67" s="57">
         <f t="shared" si="1"/>
         <v>14298.03226</v>
       </c>
-      <c r="H67" s="73">
+      <c r="H67" s="72">
         <f t="shared" si="2"/>
         <v>-0.1524214134</v>
       </c>
@@ -3512,26 +3512,26 @@
       <c r="A68" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="81">
+      <c r="B68" s="80">
         <v>2020.0</v>
       </c>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="81" t="s">
         <v>110</v>
       </c>
       <c r="D68" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E68" s="60">
+      <c r="E68" s="55">
         <v>30.0</v>
       </c>
-      <c r="F68" s="61">
+      <c r="F68" s="60">
         <v>98482.0</v>
       </c>
       <c r="G68" s="57">
         <f t="shared" si="1"/>
         <v>3282.733333</v>
       </c>
-      <c r="H68" s="73">
+      <c r="H68" s="72">
         <f t="shared" si="2"/>
         <v>-0.3534792649</v>
       </c>
@@ -3543,26 +3543,26 @@
       <c r="A69" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="81">
+      <c r="B69" s="80">
         <v>2020.0</v>
       </c>
-      <c r="C69" s="82" t="s">
+      <c r="C69" s="81" t="s">
         <v>111</v>
       </c>
       <c r="D69" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F69" s="61">
+      <c r="E69" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F69" s="60">
         <v>127925.0</v>
       </c>
       <c r="G69" s="57">
         <f t="shared" si="1"/>
         <v>4126.612903</v>
       </c>
-      <c r="H69" s="73">
+      <c r="H69" s="72">
         <f t="shared" si="2"/>
         <v>-0.4695883152</v>
       </c>
@@ -3574,26 +3574,26 @@
       <c r="A70" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="81">
+      <c r="B70" s="80">
         <v>2020.0</v>
       </c>
-      <c r="C70" s="82" t="s">
+      <c r="C70" s="81" t="s">
         <v>112</v>
       </c>
       <c r="D70" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E70" s="60">
+      <c r="E70" s="55">
         <v>30.0</v>
       </c>
-      <c r="F70" s="61">
+      <c r="F70" s="60">
         <v>193763.0</v>
       </c>
       <c r="G70" s="57">
         <f t="shared" si="1"/>
         <v>6458.766667</v>
       </c>
-      <c r="H70" s="73">
+      <c r="H70" s="72">
         <f t="shared" si="2"/>
         <v>-0.5327165577</v>
       </c>
@@ -3605,26 +3605,26 @@
       <c r="A71" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="81">
+      <c r="B71" s="80">
         <v>2020.0</v>
       </c>
-      <c r="C71" s="82" t="s">
+      <c r="C71" s="81" t="s">
         <v>113</v>
       </c>
       <c r="D71" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E71" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F71" s="61">
+      <c r="E71" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F71" s="60">
         <v>388459.0</v>
       </c>
       <c r="G71" s="57">
         <f t="shared" si="1"/>
         <v>12530.93548</v>
       </c>
-      <c r="H71" s="73">
+      <c r="H71" s="72">
         <f t="shared" si="2"/>
         <v>-0.545051994</v>
       </c>
@@ -3636,26 +3636,26 @@
       <c r="A72" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="81">
+      <c r="B72" s="80">
         <v>2020.0</v>
       </c>
-      <c r="C72" s="82" t="s">
+      <c r="C72" s="81" t="s">
         <v>114</v>
       </c>
       <c r="D72" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F72" s="61">
+      <c r="E72" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F72" s="60">
         <v>473656.0</v>
       </c>
       <c r="G72" s="57">
         <f t="shared" si="1"/>
         <v>15279.22581</v>
       </c>
-      <c r="H72" s="73">
+      <c r="H72" s="72">
         <f t="shared" si="2"/>
         <v>-0.5402956787</v>
       </c>
@@ -3667,26 +3667,26 @@
       <c r="A73" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="81">
+      <c r="B73" s="80">
         <v>2020.0</v>
       </c>
-      <c r="C73" s="82" t="s">
+      <c r="C73" s="81" t="s">
         <v>115</v>
       </c>
       <c r="D73" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="60">
+      <c r="E73" s="55">
         <v>30.0</v>
       </c>
-      <c r="F73" s="61">
+      <c r="F73" s="60">
         <v>421608.0</v>
       </c>
       <c r="G73" s="57">
         <f t="shared" si="1"/>
         <v>14053.6</v>
       </c>
-      <c r="H73" s="73">
+      <c r="H73" s="72">
         <f t="shared" si="2"/>
         <v>-0.5412361339</v>
       </c>
@@ -3698,26 +3698,26 @@
       <c r="A74" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="81">
+      <c r="B74" s="80">
         <v>2020.0</v>
       </c>
-      <c r="C74" s="82" t="s">
+      <c r="C74" s="81" t="s">
         <v>116</v>
       </c>
       <c r="D74" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E74" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F74" s="61">
+      <c r="E74" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F74" s="60">
         <v>374299.0</v>
       </c>
       <c r="G74" s="57">
         <f t="shared" si="1"/>
         <v>12074.16129</v>
       </c>
-      <c r="H74" s="73">
+      <c r="H74" s="72">
         <f t="shared" si="2"/>
         <v>-0.5446851262</v>
       </c>
@@ -3729,26 +3729,26 @@
       <c r="A75" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="81">
+      <c r="B75" s="80">
         <v>2020.0</v>
       </c>
-      <c r="C75" s="82" t="s">
+      <c r="C75" s="81" t="s">
         <v>117</v>
       </c>
       <c r="D75" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E75" s="60">
+      <c r="E75" s="55">
         <v>30.0</v>
       </c>
-      <c r="F75" s="61">
+      <c r="F75" s="60">
         <v>265655.0</v>
       </c>
       <c r="G75" s="57">
         <f t="shared" si="1"/>
         <v>8855.166667</v>
       </c>
-      <c r="H75" s="73">
+      <c r="H75" s="72">
         <f t="shared" si="2"/>
         <v>-0.5510597614</v>
       </c>
@@ -3757,33 +3757,33 @@
       </c>
     </row>
     <row r="76" ht="12.0" customHeight="1">
-      <c r="A76" s="63" t="s">
+      <c r="A76" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B76" s="13">
         <v>2020.0</v>
       </c>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="65" t="s">
+      <c r="D76" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E76" s="66">
-        <v>31.0</v>
-      </c>
-      <c r="F76" s="67">
+      <c r="E76" s="65">
+        <v>31.0</v>
+      </c>
+      <c r="F76" s="66">
         <v>280108.0</v>
       </c>
-      <c r="G76" s="77">
+      <c r="G76" s="76">
         <f t="shared" si="1"/>
         <v>9035.741935</v>
       </c>
-      <c r="H76" s="78">
+      <c r="H76" s="77">
         <f t="shared" si="2"/>
         <v>-0.5549000876</v>
       </c>
-      <c r="I76" s="70">
+      <c r="I76" s="69">
         <v>1.0</v>
       </c>
     </row>
@@ -3791,10 +3791,10 @@
       <c r="A77" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="79">
+      <c r="B77" s="78">
         <v>2021.0</v>
       </c>
-      <c r="C77" s="80" t="s">
+      <c r="C77" s="79" t="s">
         <v>119</v>
       </c>
       <c r="D77" s="46" t="s">
@@ -3803,14 +3803,14 @@
       <c r="E77" s="47">
         <v>31.0</v>
       </c>
-      <c r="F77" s="71">
+      <c r="F77" s="70">
         <v>248753.0</v>
       </c>
       <c r="G77" s="49">
         <f t="shared" si="1"/>
         <v>8024.290323</v>
       </c>
-      <c r="H77" s="72">
+      <c r="H77" s="71">
         <f>G77/G65-1</f>
         <v>-0.6447441332</v>
       </c>
@@ -3822,10 +3822,10 @@
       <c r="A78" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="81">
+      <c r="B78" s="80">
         <v>2021.0</v>
       </c>
-      <c r="C78" s="82" t="s">
+      <c r="C78" s="81" t="s">
         <v>120</v>
       </c>
       <c r="D78" s="54" t="s">
@@ -3834,14 +3834,14 @@
       <c r="E78" s="55">
         <v>28.0</v>
       </c>
-      <c r="F78" s="61">
+      <c r="F78" s="60">
         <v>214175.0</v>
       </c>
       <c r="G78" s="57">
         <f t="shared" si="1"/>
         <v>7649.107143</v>
       </c>
-      <c r="H78" s="73">
+      <c r="H78" s="72">
         <f t="shared" ref="H78:H88" si="3">(sum(F$77:F78)/sum(E$77:E78))/((sum(F$65:F66)/sum(E$65:E66)))-1</f>
         <v>-0.6554925619</v>
       </c>
@@ -3853,26 +3853,26 @@
       <c r="A79" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="81">
+      <c r="B79" s="80">
         <v>2021.0</v>
       </c>
-      <c r="C79" s="82" t="s">
+      <c r="C79" s="81" t="s">
         <v>121</v>
       </c>
       <c r="D79" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E79" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F79" s="61">
+      <c r="E79" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F79" s="60">
         <v>261183.0</v>
       </c>
       <c r="G79" s="57">
         <f t="shared" si="1"/>
         <v>8425.258065</v>
       </c>
-      <c r="H79" s="73">
+      <c r="H79" s="72">
         <f t="shared" si="3"/>
         <v>-0.5954383401</v>
       </c>
@@ -3884,26 +3884,26 @@
       <c r="A80" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="81">
+      <c r="B80" s="80">
         <v>2021.0</v>
       </c>
-      <c r="C80" s="82" t="s">
+      <c r="C80" s="81" t="s">
         <v>122</v>
       </c>
       <c r="D80" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="60">
+      <c r="E80" s="55">
         <v>30.0</v>
       </c>
-      <c r="F80" s="61">
+      <c r="F80" s="60">
         <v>282465.0</v>
       </c>
       <c r="G80" s="57">
         <f t="shared" si="1"/>
         <v>9415.5</v>
       </c>
-      <c r="H80" s="73">
+      <c r="H80" s="72">
         <f t="shared" si="3"/>
         <v>-0.4681136583</v>
       </c>
@@ -3915,26 +3915,26 @@
       <c r="A81" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="81">
+      <c r="B81" s="80">
         <v>2021.0</v>
       </c>
-      <c r="C81" s="82" t="s">
+      <c r="C81" s="81" t="s">
         <v>123</v>
       </c>
       <c r="D81" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E81" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F81" s="61">
+      <c r="E81" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F81" s="60">
         <v>335424.0</v>
       </c>
       <c r="G81" s="57">
         <f t="shared" si="1"/>
         <v>10820.12903</v>
       </c>
-      <c r="H81" s="73">
+      <c r="H81" s="72">
         <f t="shared" si="3"/>
         <v>-0.3365514413</v>
       </c>
@@ -3946,26 +3946,26 @@
       <c r="A82" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="81">
+      <c r="B82" s="80">
         <v>2021.0</v>
       </c>
-      <c r="C82" s="82" t="s">
+      <c r="C82" s="81" t="s">
         <v>124</v>
       </c>
       <c r="D82" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E82" s="60">
+      <c r="E82" s="55">
         <v>30.0</v>
       </c>
-      <c r="F82" s="61">
+      <c r="F82" s="60">
         <v>451774.0</v>
       </c>
       <c r="G82" s="57">
         <f t="shared" si="1"/>
         <v>15059.13333</v>
       </c>
-      <c r="H82" s="73">
+      <c r="H82" s="72">
         <f t="shared" si="3"/>
         <v>-0.1911450065</v>
       </c>
@@ -3977,26 +3977,26 @@
       <c r="A83" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="81">
+      <c r="B83" s="80">
         <v>2021.0</v>
       </c>
-      <c r="C83" s="82" t="s">
+      <c r="C83" s="81" t="s">
         <v>125</v>
       </c>
       <c r="D83" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E83" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F83" s="61">
+      <c r="E83" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F83" s="60">
         <v>626249.0</v>
       </c>
       <c r="G83" s="57">
         <f t="shared" si="1"/>
         <v>20201.58065</v>
       </c>
-      <c r="H83" s="73">
+      <c r="H83" s="72">
         <f t="shared" si="3"/>
         <v>-0.07139668588</v>
       </c>
@@ -4008,26 +4008,26 @@
       <c r="A84" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="81">
+      <c r="B84" s="80">
         <v>2021.0</v>
       </c>
-      <c r="C84" s="82" t="s">
+      <c r="C84" s="81" t="s">
         <v>126</v>
       </c>
       <c r="D84" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E84" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F84" s="61">
+      <c r="E84" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F84" s="60">
         <v>673117.0</v>
       </c>
       <c r="G84" s="57">
         <f t="shared" si="1"/>
         <v>21713.45161</v>
       </c>
-      <c r="H84" s="73">
+      <c r="H84" s="72">
         <f t="shared" si="3"/>
         <v>0.004473092243</v>
       </c>
@@ -4039,26 +4039,26 @@
       <c r="A85" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="81">
+      <c r="B85" s="80">
         <v>2021.0</v>
       </c>
-      <c r="C85" s="82" t="s">
+      <c r="C85" s="81" t="s">
         <v>127</v>
       </c>
       <c r="D85" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E85" s="60">
+      <c r="E85" s="55">
         <v>30.0</v>
       </c>
-      <c r="F85" s="61">
+      <c r="F85" s="60">
         <v>643255.0</v>
       </c>
       <c r="G85" s="57">
         <f t="shared" si="1"/>
         <v>21441.83333</v>
       </c>
-      <c r="H85" s="73">
+      <c r="H85" s="72">
         <f t="shared" si="3"/>
         <v>0.06729062307</v>
       </c>
@@ -4070,26 +4070,26 @@
       <c r="A86" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="81">
+      <c r="B86" s="80">
         <v>2021.0</v>
       </c>
-      <c r="C86" s="82" t="s">
+      <c r="C86" s="81" t="s">
         <v>128</v>
       </c>
       <c r="D86" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F86" s="61">
+      <c r="E86" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F86" s="60">
         <v>634591.0</v>
       </c>
       <c r="G86" s="57">
         <f t="shared" si="1"/>
         <v>20470.67742</v>
       </c>
-      <c r="H86" s="73">
+      <c r="H86" s="72">
         <f t="shared" si="3"/>
         <v>0.127938858</v>
       </c>
@@ -4101,26 +4101,26 @@
       <c r="A87" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="81">
+      <c r="B87" s="80">
         <v>2021.0</v>
       </c>
-      <c r="C87" s="82" t="s">
+      <c r="C87" s="81" t="s">
         <v>129</v>
       </c>
       <c r="D87" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E87" s="60">
+      <c r="E87" s="55">
         <v>30.0</v>
       </c>
-      <c r="F87" s="61">
+      <c r="F87" s="60">
         <v>547695.0</v>
       </c>
       <c r="G87" s="57">
         <f t="shared" si="1"/>
         <v>18256.5</v>
       </c>
-      <c r="H87" s="73">
+      <c r="H87" s="72">
         <f t="shared" si="3"/>
         <v>0.1877425823</v>
       </c>
@@ -4129,33 +4129,33 @@
       </c>
     </row>
     <row r="88" ht="12.0" customHeight="1">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B88" s="13">
         <v>2021.0</v>
       </c>
-      <c r="C88" s="83" t="s">
+      <c r="C88" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="D88" s="65" t="s">
+      <c r="D88" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E88" s="66">
-        <v>31.0</v>
-      </c>
-      <c r="F88" s="67">
+      <c r="E88" s="65">
+        <v>31.0</v>
+      </c>
+      <c r="F88" s="66">
         <v>552434.0</v>
       </c>
-      <c r="G88" s="77">
+      <c r="G88" s="76">
         <f t="shared" si="1"/>
         <v>17820.45161</v>
       </c>
-      <c r="H88" s="78">
+      <c r="H88" s="77">
         <f t="shared" si="3"/>
         <v>0.2373625769</v>
       </c>
-      <c r="I88" s="70">
+      <c r="I88" s="69">
         <v>1.0</v>
       </c>
     </row>
@@ -4163,10 +4163,10 @@
       <c r="A89" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="79">
+      <c r="B89" s="78">
         <v>2022.0</v>
       </c>
-      <c r="C89" s="80" t="s">
+      <c r="C89" s="79" t="s">
         <v>131</v>
       </c>
       <c r="D89" s="46" t="s">
@@ -4175,14 +4175,14 @@
       <c r="E89" s="47">
         <v>31.0</v>
       </c>
-      <c r="F89" s="71">
+      <c r="F89" s="70">
         <v>478094.0</v>
       </c>
       <c r="G89" s="49">
         <f t="shared" si="1"/>
         <v>15422.3871</v>
       </c>
-      <c r="H89" s="72">
+      <c r="H89" s="71">
         <f>G89/G77-1</f>
         <v>0.9219627502</v>
       </c>
@@ -4194,10 +4194,10 @@
       <c r="A90" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="81">
+      <c r="B90" s="80">
         <v>2022.0</v>
       </c>
-      <c r="C90" s="82" t="s">
+      <c r="C90" s="81" t="s">
         <v>132</v>
       </c>
       <c r="D90" s="54" t="s">
@@ -4206,14 +4206,14 @@
       <c r="E90" s="55">
         <v>28.0</v>
       </c>
-      <c r="F90" s="61">
+      <c r="F90" s="60">
         <v>463707.0</v>
       </c>
       <c r="G90" s="57">
         <f t="shared" si="1"/>
         <v>16560.96429</v>
       </c>
-      <c r="H90" s="73">
+      <c r="H90" s="72">
         <f t="shared" ref="H90:H100" si="4">(sum(F$89:F90)/sum(E$89:E90))/((sum(F$77:F78)/sum(E$77:E78)))-1</f>
         <v>1.034443801</v>
       </c>
@@ -4225,26 +4225,26 @@
       <c r="A91" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="81">
+      <c r="B91" s="80">
         <v>2022.0</v>
       </c>
-      <c r="C91" s="82" t="s">
+      <c r="C91" s="81" t="s">
         <v>133</v>
       </c>
       <c r="D91" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E91" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F91" s="61">
+      <c r="E91" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F91" s="60">
         <v>580324.0</v>
       </c>
       <c r="G91" s="57">
         <f t="shared" si="1"/>
         <v>18720.12903</v>
       </c>
-      <c r="H91" s="73">
+      <c r="H91" s="72">
         <f t="shared" si="4"/>
         <v>1.102060319</v>
       </c>
@@ -4256,26 +4256,26 @@
       <c r="A92" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="81">
+      <c r="B92" s="80">
         <v>2022.0</v>
       </c>
-      <c r="C92" s="82" t="s">
+      <c r="C92" s="81" t="s">
         <v>134</v>
       </c>
       <c r="D92" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="60">
+      <c r="E92" s="55">
         <v>30.0</v>
       </c>
-      <c r="F92" s="61">
+      <c r="F92" s="60">
         <v>675361.0</v>
       </c>
       <c r="G92" s="57">
         <f t="shared" si="1"/>
         <v>22512.03333</v>
       </c>
-      <c r="H92" s="73">
+      <c r="H92" s="72">
         <f t="shared" si="4"/>
         <v>1.183129739</v>
       </c>
@@ -4287,26 +4287,26 @@
       <c r="A93" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="81">
+      <c r="B93" s="80">
         <v>2022.0</v>
       </c>
-      <c r="C93" s="82" t="s">
+      <c r="C93" s="81" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E93" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F93" s="61">
+      <c r="E93" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F93" s="60">
         <v>769535.0</v>
       </c>
       <c r="G93" s="57">
         <f t="shared" si="1"/>
         <v>24823.70968</v>
       </c>
-      <c r="H93" s="73">
+      <c r="H93" s="72">
         <f t="shared" si="4"/>
         <v>1.210894933</v>
       </c>
@@ -4318,26 +4318,26 @@
       <c r="A94" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="81">
+      <c r="B94" s="80">
         <v>2022.0</v>
       </c>
-      <c r="C94" s="82" t="s">
+      <c r="C94" s="81" t="s">
         <v>136</v>
       </c>
       <c r="D94" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E94" s="60">
+      <c r="E94" s="55">
         <v>30.0</v>
       </c>
-      <c r="F94" s="61">
+      <c r="F94" s="60">
         <v>807281.0</v>
       </c>
       <c r="G94" s="57">
         <f t="shared" si="1"/>
         <v>26909.36667</v>
       </c>
-      <c r="H94" s="73">
+      <c r="H94" s="72">
         <f t="shared" si="4"/>
         <v>1.104112335</v>
       </c>
@@ -4349,26 +4349,26 @@
       <c r="A95" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="81">
+      <c r="B95" s="80">
         <v>2022.0</v>
       </c>
-      <c r="C95" s="82" t="s">
+      <c r="C95" s="81" t="s">
         <v>137</v>
       </c>
       <c r="D95" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E95" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F95" s="61">
+      <c r="E95" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F95" s="60">
         <v>856434.0</v>
       </c>
       <c r="G95" s="57">
         <f t="shared" si="1"/>
         <v>27626.90323</v>
       </c>
-      <c r="H95" s="73">
+      <c r="H95" s="72">
         <f t="shared" si="4"/>
         <v>0.9135090865</v>
       </c>
@@ -4380,26 +4380,26 @@
       <c r="A96" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="81">
+      <c r="B96" s="80">
         <v>2022.0</v>
       </c>
-      <c r="C96" s="82" t="s">
+      <c r="C96" s="81" t="s">
         <v>138</v>
       </c>
       <c r="D96" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E96" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F96" s="61">
+      <c r="E96" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F96" s="60">
         <v>853494.0</v>
       </c>
       <c r="G96" s="57">
         <f t="shared" si="1"/>
         <v>27532.06452</v>
       </c>
-      <c r="H96" s="73">
+      <c r="H96" s="72">
         <f t="shared" si="4"/>
         <v>0.7730299954</v>
       </c>
@@ -4411,26 +4411,26 @@
       <c r="A97" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B97" s="81">
+      <c r="B97" s="80">
         <v>2022.0</v>
       </c>
-      <c r="C97" s="82" t="s">
+      <c r="C97" s="81" t="s">
         <v>139</v>
       </c>
       <c r="D97" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E97" s="60">
+      <c r="E97" s="55">
         <v>30.0</v>
       </c>
-      <c r="F97" s="61">
+      <c r="F97" s="60">
         <v>811247.0</v>
       </c>
       <c r="G97" s="57">
         <f t="shared" si="1"/>
         <v>27041.56667</v>
       </c>
-      <c r="H97" s="73">
+      <c r="H97" s="72">
         <f t="shared" si="4"/>
         <v>0.6849067082</v>
       </c>
@@ -4442,26 +4442,26 @@
       <c r="A98" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="81">
+      <c r="B98" s="80">
         <v>2022.0</v>
       </c>
-      <c r="C98" s="82" t="s">
+      <c r="C98" s="81" t="s">
         <v>140</v>
       </c>
       <c r="D98" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E98" s="60">
-        <v>31.0</v>
-      </c>
-      <c r="F98" s="61">
+      <c r="E98" s="55">
+        <v>31.0</v>
+      </c>
+      <c r="F98" s="60">
         <v>773882.0</v>
       </c>
       <c r="G98" s="57">
         <f t="shared" si="1"/>
         <v>24963.93548</v>
       </c>
-      <c r="H98" s="73">
+      <c r="H98" s="72">
         <f t="shared" si="4"/>
         <v>0.6173373696</v>
       </c>
@@ -4473,26 +4473,26 @@
       <c r="A99" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B99" s="81">
+      <c r="B99" s="80">
         <v>2022.0</v>
       </c>
-      <c r="C99" s="82" t="s">
+      <c r="C99" s="81" t="s">
         <v>141</v>
       </c>
       <c r="D99" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E99" s="60">
+      <c r="E99" s="55">
         <v>30.0</v>
       </c>
-      <c r="F99" s="61">
+      <c r="F99" s="60">
         <v>616404.0</v>
       </c>
       <c r="G99" s="57">
         <f t="shared" si="1"/>
         <v>20546.8</v>
       </c>
-      <c r="H99" s="73">
+      <c r="H99" s="72">
         <f t="shared" si="4"/>
         <v>0.5625658586</v>
       </c>
@@ -4501,33 +4501,33 @@
       </c>
     </row>
     <row r="100" ht="12.0" customHeight="1">
-      <c r="A100" s="63" t="s">
+      <c r="A100" s="62" t="s">
         <v>34</v>
       </c>
       <c r="B100" s="13">
         <v>2022.0</v>
       </c>
-      <c r="C100" s="83" t="s">
+      <c r="C100" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="D100" s="65" t="s">
+      <c r="D100" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E100" s="66">
-        <v>31.0</v>
-      </c>
-      <c r="F100" s="67">
+      <c r="E100" s="65">
+        <v>31.0</v>
+      </c>
+      <c r="F100" s="66">
         <v>616882.0</v>
       </c>
-      <c r="G100" s="77">
+      <c r="G100" s="76">
         <f t="shared" si="1"/>
         <v>19899.41935</v>
       </c>
-      <c r="H100" s="78">
+      <c r="H100" s="77">
         <f t="shared" si="4"/>
         <v>0.5175416711</v>
       </c>
-      <c r="I100" s="70">
+      <c r="I100" s="69">
         <v>1.0</v>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
       <c r="D1" s="4">
         <v>44197.0</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B2" s="33">
         <f>ERT_FLTS_YY!B2</f>
-        <v>44944</v>
+        <v>45034</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
@@ -4590,7 +4590,7 @@
         <f>ERT_FLTS_YY!D2</f>
         <v>44926</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="84" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -4598,665 +4598,656 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="86"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="17" t="str">
         <f>ERT_FLTS_YY!A4</f>
         <v>Period: JAN-DEC</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="87" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="91">
         <v>5471115.0</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="91">
         <v>8302587.0</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="91">
         <v>14989.0</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="91">
         <v>22747.0</v>
       </c>
-      <c r="F6" s="93">
-        <f t="shared" ref="F6:F34" si="1">E6/D6-1</f>
-        <v>0.5175795583</v>
+      <c r="F6" s="92">
+        <v>0.518</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="92">
-        <v>739437.0</v>
-      </c>
-      <c r="C7" s="92">
-        <v>1267225.0</v>
-      </c>
-      <c r="D7" s="92">
+      <c r="B7" s="91">
+        <v>739467.0</v>
+      </c>
+      <c r="C7" s="91">
+        <v>1267283.0</v>
+      </c>
+      <c r="D7" s="91">
         <v>2026.0</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <v>3472.0</v>
       </c>
-      <c r="F7" s="93">
-        <f t="shared" si="1"/>
-        <v>0.713721619</v>
+      <c r="F7" s="92">
+        <v>0.714</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="92">
-        <v>638479.0</v>
-      </c>
-      <c r="C8" s="92">
-        <v>1023276.0</v>
-      </c>
-      <c r="D8" s="92">
+      <c r="B8" s="91">
+        <v>638535.0</v>
+      </c>
+      <c r="C8" s="91">
+        <v>1023296.0</v>
+      </c>
+      <c r="D8" s="91">
         <v>1749.0</v>
       </c>
-      <c r="E8" s="92">
+      <c r="E8" s="91">
         <v>2803.0</v>
       </c>
-      <c r="F8" s="93">
-        <f t="shared" si="1"/>
-        <v>0.6026300743</v>
+      <c r="F8" s="92">
+        <v>0.603</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="92">
-        <v>516399.0</v>
-      </c>
-      <c r="C9" s="92">
-        <v>822079.0</v>
-      </c>
-      <c r="D9" s="92">
+      <c r="B9" s="91">
+        <v>516424.0</v>
+      </c>
+      <c r="C9" s="91">
+        <v>822177.0</v>
+      </c>
+      <c r="D9" s="91">
         <v>1415.0</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="91">
         <v>2252.0</v>
       </c>
-      <c r="F9" s="93">
-        <f t="shared" si="1"/>
-        <v>0.5915194346</v>
+      <c r="F9" s="92">
+        <v>0.592</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="92">
-        <v>460884.0</v>
-      </c>
-      <c r="C10" s="92">
-        <v>713406.0</v>
-      </c>
-      <c r="D10" s="92">
+      <c r="B10" s="91">
+        <v>460914.0</v>
+      </c>
+      <c r="C10" s="91">
+        <v>713436.0</v>
+      </c>
+      <c r="D10" s="91">
         <v>1263.0</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="91">
         <v>1955.0</v>
       </c>
-      <c r="F10" s="93">
-        <f t="shared" si="1"/>
-        <v>0.5479018211</v>
+      <c r="F10" s="92">
+        <v>0.548</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="92">
-        <v>252361.0</v>
-      </c>
-      <c r="C11" s="92">
-        <v>343957.0</v>
-      </c>
-      <c r="D11" s="92">
+      <c r="B11" s="91">
+        <v>252386.0</v>
+      </c>
+      <c r="C11" s="91">
+        <v>343966.0</v>
+      </c>
+      <c r="D11" s="91">
         <v>691.0</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="91">
         <v>942.0</v>
       </c>
-      <c r="F11" s="93">
-        <f t="shared" si="1"/>
-        <v>0.3632416787</v>
+      <c r="F11" s="92">
+        <v>0.363</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="92">
-        <v>403941.0</v>
-      </c>
-      <c r="C12" s="92">
-        <v>616048.0</v>
-      </c>
-      <c r="D12" s="92">
+      <c r="B12" s="91">
+        <v>403945.0</v>
+      </c>
+      <c r="C12" s="91">
+        <v>616075.0</v>
+      </c>
+      <c r="D12" s="91">
         <v>1107.0</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="91">
         <v>1688.0</v>
       </c>
-      <c r="F12" s="93">
-        <f t="shared" si="1"/>
-        <v>0.5248419151</v>
+      <c r="F12" s="92">
+        <v>0.525</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="92">
-        <v>300105.0</v>
-      </c>
-      <c r="C13" s="92">
-        <v>504639.0</v>
-      </c>
-      <c r="D13" s="92">
+      <c r="B13" s="91">
+        <v>300128.0</v>
+      </c>
+      <c r="C13" s="91">
+        <v>504616.0</v>
+      </c>
+      <c r="D13" s="91">
         <v>822.0</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="91">
         <v>1383.0</v>
       </c>
-      <c r="F13" s="93">
-        <f t="shared" si="1"/>
-        <v>0.6824817518</v>
+      <c r="F13" s="92">
+        <v>0.682</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="92">
-        <v>109310.0</v>
-      </c>
-      <c r="C14" s="92">
-        <v>141577.0</v>
-      </c>
-      <c r="D14" s="92">
+      <c r="B14" s="91">
+        <v>110122.0</v>
+      </c>
+      <c r="C14" s="91">
+        <v>142729.0</v>
+      </c>
+      <c r="D14" s="91">
         <v>299.0</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="91">
         <v>388.0</v>
       </c>
-      <c r="F14" s="93">
-        <f t="shared" si="1"/>
-        <v>0.2976588629</v>
+      <c r="F14" s="92">
+        <v>0.298</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="92">
-        <v>123305.0</v>
-      </c>
-      <c r="C15" s="92">
-        <v>205479.0</v>
-      </c>
-      <c r="D15" s="92">
+      <c r="B15" s="91">
+        <v>123306.0</v>
+      </c>
+      <c r="C15" s="91">
+        <v>205477.0</v>
+      </c>
+      <c r="D15" s="91">
         <v>338.0</v>
       </c>
-      <c r="E15" s="92">
+      <c r="E15" s="91">
         <v>563.0</v>
       </c>
-      <c r="F15" s="93">
-        <f t="shared" si="1"/>
-        <v>0.6656804734</v>
+      <c r="F15" s="92">
+        <v>0.666</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="92">
-        <v>1813301.0</v>
-      </c>
-      <c r="C16" s="92">
-        <v>2971388.0</v>
-      </c>
-      <c r="D16" s="92">
+      <c r="B16" s="91">
+        <v>1813389.0</v>
+      </c>
+      <c r="C16" s="91">
+        <v>2971433.0</v>
+      </c>
+      <c r="D16" s="91">
         <v>4968.0</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="91">
         <v>8141.0</v>
       </c>
-      <c r="F16" s="93">
-        <f t="shared" si="1"/>
-        <v>0.6386876006</v>
+      <c r="F16" s="92">
+        <v>0.639</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="92">
-        <v>1711621.0</v>
-      </c>
-      <c r="C17" s="92">
-        <v>2712530.0</v>
-      </c>
-      <c r="D17" s="92">
+      <c r="B17" s="91">
+        <v>1711721.0</v>
+      </c>
+      <c r="C17" s="91">
+        <v>2712552.0</v>
+      </c>
+      <c r="D17" s="91">
         <v>4689.0</v>
       </c>
-      <c r="E17" s="92">
+      <c r="E17" s="91">
         <v>7432.0</v>
       </c>
-      <c r="F17" s="93">
-        <f t="shared" si="1"/>
-        <v>0.5849861378</v>
+      <c r="F17" s="92">
+        <v>0.585</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="92">
-        <v>569215.0</v>
-      </c>
-      <c r="C18" s="92">
-        <v>895928.0</v>
-      </c>
-      <c r="D18" s="92">
+      <c r="B18" s="91">
+        <v>569257.0</v>
+      </c>
+      <c r="C18" s="91">
+        <v>895947.0</v>
+      </c>
+      <c r="D18" s="91">
         <v>1559.0</v>
       </c>
-      <c r="E18" s="92">
+      <c r="E18" s="91">
         <v>2455.0</v>
       </c>
-      <c r="F18" s="93">
-        <f t="shared" si="1"/>
-        <v>0.5747273894</v>
+      <c r="F18" s="92">
+        <v>0.575</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="92">
-        <v>491097.0</v>
-      </c>
-      <c r="C19" s="92">
-        <v>896630.0</v>
-      </c>
-      <c r="D19" s="92">
+      <c r="B19" s="91">
+        <v>491115.0</v>
+      </c>
+      <c r="C19" s="91">
+        <v>896700.0</v>
+      </c>
+      <c r="D19" s="91">
         <v>1345.0</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="91">
         <v>2457.0</v>
       </c>
-      <c r="F19" s="93">
-        <f t="shared" si="1"/>
-        <v>0.8267657993</v>
+      <c r="F19" s="92">
+        <v>0.827</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="92">
-        <v>253926.0</v>
-      </c>
-      <c r="C20" s="92">
-        <v>504140.0</v>
-      </c>
-      <c r="D20" s="92">
+      <c r="B20" s="91">
+        <v>299941.0</v>
+      </c>
+      <c r="C20" s="91">
+        <v>582218.0</v>
+      </c>
+      <c r="D20" s="91">
         <v>696.0</v>
       </c>
-      <c r="E20" s="92">
+      <c r="E20" s="91">
         <v>1381.0</v>
       </c>
-      <c r="F20" s="93">
-        <f t="shared" si="1"/>
-        <v>0.9841954023</v>
+      <c r="F20" s="92">
+        <v>0.984</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="92">
-        <v>1105870.0</v>
-      </c>
-      <c r="C21" s="92">
-        <v>1787963.0</v>
-      </c>
-      <c r="D21" s="92">
+      <c r="B21" s="91">
+        <v>1105902.0</v>
+      </c>
+      <c r="C21" s="91">
+        <v>1788008.0</v>
+      </c>
+      <c r="D21" s="91">
         <v>3030.0</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="91">
         <v>4899.0</v>
       </c>
-      <c r="F21" s="93">
-        <f t="shared" si="1"/>
-        <v>0.6168316832</v>
+      <c r="F21" s="92">
+        <v>0.617</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="92">
-        <v>162634.0</v>
-      </c>
-      <c r="C22" s="92">
-        <v>185860.0</v>
-      </c>
-      <c r="D22" s="92">
+      <c r="B22" s="91">
+        <v>163979.0</v>
+      </c>
+      <c r="C22" s="91">
+        <v>189731.0</v>
+      </c>
+      <c r="D22" s="91">
         <v>446.0</v>
       </c>
-      <c r="E22" s="92">
+      <c r="E22" s="91">
         <v>509.0</v>
       </c>
-      <c r="F22" s="93">
-        <f t="shared" si="1"/>
-        <v>0.1412556054</v>
+      <c r="F22" s="92">
+        <v>0.141</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="92">
-        <v>177657.0</v>
-      </c>
-      <c r="C23" s="92">
-        <v>183041.0</v>
-      </c>
-      <c r="D23" s="92">
+      <c r="B23" s="91">
+        <v>178415.0</v>
+      </c>
+      <c r="C23" s="91">
+        <v>184432.0</v>
+      </c>
+      <c r="D23" s="91">
         <v>487.0</v>
       </c>
-      <c r="E23" s="92">
+      <c r="E23" s="91">
         <v>501.0</v>
       </c>
-      <c r="F23" s="93">
-        <f t="shared" si="1"/>
-        <v>0.02874743326</v>
+      <c r="F23" s="92">
+        <v>0.029</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="92">
-        <v>72153.0</v>
-      </c>
-      <c r="C24" s="92">
+      <c r="B24" s="91">
+        <v>72157.0</v>
+      </c>
+      <c r="C24" s="91">
         <v>100609.0</v>
       </c>
-      <c r="D24" s="92">
+      <c r="D24" s="91">
         <v>198.0</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="91">
         <v>276.0</v>
       </c>
-      <c r="F24" s="93">
-        <f t="shared" si="1"/>
-        <v>0.3939393939</v>
+      <c r="F24" s="92">
+        <v>0.394</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="92">
-        <v>652525.0</v>
-      </c>
-      <c r="C25" s="92">
-        <v>1092043.0</v>
-      </c>
-      <c r="D25" s="92">
+      <c r="B25" s="91">
+        <v>652554.0</v>
+      </c>
+      <c r="C25" s="91">
+        <v>1092062.0</v>
+      </c>
+      <c r="D25" s="91">
         <v>1788.0</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E25" s="91">
         <v>2992.0</v>
       </c>
-      <c r="F25" s="93">
-        <f t="shared" si="1"/>
-        <v>0.6733780761</v>
+      <c r="F25" s="92">
+        <v>0.673</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="92">
-        <v>376326.0</v>
-      </c>
-      <c r="C26" s="92">
-        <v>529102.0</v>
-      </c>
-      <c r="D26" s="92">
+      <c r="B26" s="91">
+        <v>373837.0</v>
+      </c>
+      <c r="C26" s="91">
+        <v>524737.0</v>
+      </c>
+      <c r="D26" s="91">
         <v>1031.0</v>
       </c>
-      <c r="E26" s="92">
+      <c r="E26" s="91">
         <v>1450.0</v>
       </c>
-      <c r="F26" s="93">
-        <f t="shared" si="1"/>
-        <v>0.4064015519</v>
+      <c r="F26" s="92">
+        <v>0.406</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="92">
-        <v>473196.0</v>
-      </c>
-      <c r="C27" s="92">
-        <v>626974.0</v>
-      </c>
-      <c r="D27" s="92">
+      <c r="B27" s="91">
+        <v>473198.0</v>
+      </c>
+      <c r="C27" s="91">
+        <v>626964.0</v>
+      </c>
+      <c r="D27" s="91">
         <v>1296.0</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="91">
         <v>1718.0</v>
       </c>
-      <c r="F27" s="93">
-        <f t="shared" si="1"/>
-        <v>0.325617284</v>
+      <c r="F27" s="92">
+        <v>0.326</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="92">
-        <v>401244.0</v>
-      </c>
-      <c r="C28" s="92">
-        <v>694118.0</v>
-      </c>
-      <c r="D28" s="92">
+      <c r="B28" s="91">
+        <v>345490.0</v>
+      </c>
+      <c r="C28" s="91">
+        <v>609629.0</v>
+      </c>
+      <c r="D28" s="91">
         <v>1099.0</v>
       </c>
-      <c r="E28" s="92">
+      <c r="E28" s="91">
         <v>1902.0</v>
       </c>
-      <c r="F28" s="93">
-        <f t="shared" si="1"/>
-        <v>0.7306642402</v>
+      <c r="F28" s="92">
+        <v>0.731</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="92">
-        <v>453597.0</v>
-      </c>
-      <c r="C29" s="92">
-        <v>656335.0</v>
-      </c>
-      <c r="D29" s="92">
+      <c r="B29" s="91">
+        <v>453620.0</v>
+      </c>
+      <c r="C29" s="91">
+        <v>656399.0</v>
+      </c>
+      <c r="D29" s="91">
         <v>1243.0</v>
       </c>
-      <c r="E29" s="92">
+      <c r="E29" s="91">
         <v>1798.0</v>
       </c>
-      <c r="F29" s="93">
-        <f t="shared" si="1"/>
-        <v>0.4465004023</v>
+      <c r="F29" s="92">
+        <v>0.447</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="92">
+      <c r="B30" s="91">
         <v>270607.0</v>
       </c>
-      <c r="C30" s="92">
-        <v>470167.0</v>
-      </c>
-      <c r="D30" s="92">
+      <c r="C30" s="91">
+        <v>470198.0</v>
+      </c>
+      <c r="D30" s="91">
         <v>741.0</v>
       </c>
-      <c r="E30" s="92">
+      <c r="E30" s="91">
         <v>1288.0</v>
       </c>
-      <c r="F30" s="93">
-        <f t="shared" si="1"/>
-        <v>0.7381916329</v>
+      <c r="F30" s="92">
+        <v>0.738</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="92">
-        <v>278798.0</v>
-      </c>
-      <c r="C31" s="92">
-        <v>452879.0</v>
-      </c>
-      <c r="D31" s="92">
+      <c r="B31" s="91">
+        <v>278811.0</v>
+      </c>
+      <c r="C31" s="91">
+        <v>452894.0</v>
+      </c>
+      <c r="D31" s="91">
         <v>764.0</v>
       </c>
-      <c r="E31" s="92">
+      <c r="E31" s="91">
         <v>1241.0</v>
       </c>
-      <c r="F31" s="93">
-        <f t="shared" si="1"/>
-        <v>0.6243455497</v>
+      <c r="F31" s="92">
+        <v>0.624</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="92">
-        <v>1191616.0</v>
-      </c>
-      <c r="C32" s="92">
-        <v>1983469.0</v>
-      </c>
-      <c r="D32" s="92">
+      <c r="B32" s="91">
+        <v>219901.0</v>
+      </c>
+      <c r="C32" s="91">
+        <v>351782.0</v>
+      </c>
+      <c r="D32" s="91">
         <v>3265.0</v>
       </c>
-      <c r="E32" s="92">
+      <c r="E32" s="91">
         <v>5434.0</v>
       </c>
-      <c r="F32" s="93">
-        <f t="shared" si="1"/>
-        <v>0.6643185299</v>
+      <c r="F32" s="92">
+        <v>0.664</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="92">
-        <v>380328.0</v>
-      </c>
-      <c r="C33" s="92">
-        <v>584991.0</v>
-      </c>
-      <c r="D33" s="92">
+      <c r="B33" s="91">
+        <v>1106557.0</v>
+      </c>
+      <c r="C33" s="91">
+        <v>1867407.0</v>
+      </c>
+      <c r="D33" s="91">
+        <v>3265.0</v>
+      </c>
+      <c r="E33" s="91">
+        <v>5434.0</v>
+      </c>
+      <c r="F33" s="92">
+        <v>0.664</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="91">
+        <v>380358.0</v>
+      </c>
+      <c r="C34" s="91">
+        <v>584949.0</v>
+      </c>
+      <c r="D34" s="91">
         <v>1042.0</v>
       </c>
-      <c r="E33" s="92">
+      <c r="E34" s="91">
         <v>1603.0</v>
       </c>
-      <c r="F33" s="93">
-        <f t="shared" si="1"/>
-        <v>0.5383877159</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="92">
-        <v>623170.0</v>
-      </c>
-      <c r="C34" s="92">
-        <v>1041794.0</v>
-      </c>
-      <c r="D34" s="92">
+      <c r="F34" s="92">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="91">
+        <v>623205.0</v>
+      </c>
+      <c r="C35" s="91">
+        <v>1041813.0</v>
+      </c>
+      <c r="D35" s="91">
         <v>1707.0</v>
       </c>
-      <c r="E34" s="92">
+      <c r="E35" s="91">
         <v>2854.0</v>
       </c>
-      <c r="F34" s="93">
-        <f t="shared" si="1"/>
-        <v>0.6719390744</v>
+      <c r="F35" s="92">
+        <v>0.672</v>
       </c>
     </row>
   </sheetData>
@@ -5281,48 +5272,48 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="95" t="s">
+      <c r="A1" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="95" t="s">
+      <c r="C1" s="94" t="s">
         <v>176</v>
       </c>
+      <c r="D1" s="94" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="96">
+      <c r="A2" s="95">
         <v>44351.0</v>
       </c>
-      <c r="B2" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>178</v>
       </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="96" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="97"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="96"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="97"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="96"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
